--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H2">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>10124.7104883158</v>
+        <v>10601.98642276068</v>
       </c>
       <c r="R2">
-        <v>91122.39439484215</v>
+        <v>95417.87780484614</v>
       </c>
       <c r="S2">
-        <v>0.008683878968180353</v>
+        <v>0.01286387488697172</v>
       </c>
       <c r="T2">
-        <v>0.008683878968180349</v>
+        <v>0.01286387488697172</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H3">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>10671.81990901055</v>
+        <v>11471.16326737814</v>
       </c>
       <c r="R3">
-        <v>96046.37918109493</v>
+        <v>103240.4694064032</v>
       </c>
       <c r="S3">
-        <v>0.009153130113400489</v>
+        <v>0.01391848689437895</v>
       </c>
       <c r="T3">
-        <v>0.009153130113400486</v>
+        <v>0.01391848689437895</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H4">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>6894.946539500204</v>
+        <v>4945.068087768538</v>
       </c>
       <c r="R4">
-        <v>62054.51885550185</v>
+        <v>44505.61278991685</v>
       </c>
       <c r="S4">
-        <v>0.005913737613553597</v>
+        <v>0.006000077216854865</v>
       </c>
       <c r="T4">
-        <v>0.005913737613553596</v>
+        <v>0.006000077216854865</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H5">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>3694.250813234287</v>
+        <v>3883.22562996474</v>
       </c>
       <c r="R5">
-        <v>33248.25731910858</v>
+        <v>34949.03066968267</v>
       </c>
       <c r="S5">
-        <v>0.003168527828746325</v>
+        <v>0.004711695211616851</v>
       </c>
       <c r="T5">
-        <v>0.003168527828746324</v>
+        <v>0.004711695211616851</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H6">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>5377.886011097177</v>
+        <v>4636.515992706064</v>
       </c>
       <c r="R6">
-        <v>48400.9740998746</v>
+        <v>41728.64393435458</v>
       </c>
       <c r="S6">
-        <v>0.00461256756713511</v>
+        <v>0.005625696851824825</v>
       </c>
       <c r="T6">
-        <v>0.004612567567135108</v>
+        <v>0.005625696851824825</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J7">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>222874.070177235</v>
+        <v>217117.685713587</v>
       </c>
       <c r="R7">
-        <v>2005866.631595115</v>
+        <v>1954059.171422283</v>
       </c>
       <c r="S7">
-        <v>0.1911572141048737</v>
+        <v>0.263438815463146</v>
       </c>
       <c r="T7">
-        <v>0.1911572141048737</v>
+        <v>0.263438815463146</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J8">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>234917.5259938992</v>
@@ -948,10 +948,10 @@
         <v>2114257.733945094</v>
       </c>
       <c r="S8">
-        <v>0.2014867847914857</v>
+        <v>0.2850361755467664</v>
       </c>
       <c r="T8">
-        <v>0.2014867847914857</v>
+        <v>0.2850361755467664</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J9">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>151777.6533646323</v>
+        <v>101269.8654855327</v>
       </c>
       <c r="R9">
-        <v>1365998.880281691</v>
+        <v>911428.7893697942</v>
       </c>
       <c r="S9">
-        <v>0.1301784158089191</v>
+        <v>0.1228753582092523</v>
       </c>
       <c r="T9">
-        <v>0.1301784158089192</v>
+        <v>0.1228753582092523</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I10">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J10">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>81321.11194204105</v>
+        <v>79524.43327710738</v>
       </c>
       <c r="R10">
-        <v>731890.0074783695</v>
+        <v>715719.8994939665</v>
       </c>
       <c r="S10">
-        <v>0.06974843324927515</v>
+        <v>0.09649063103286451</v>
       </c>
       <c r="T10">
-        <v>0.06974843324927515</v>
+        <v>0.09649063103286451</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I11">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J11">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>118382.7770310718</v>
+        <v>94951.0386043529</v>
       </c>
       <c r="R11">
-        <v>1065444.993279646</v>
+        <v>854559.3474391762</v>
       </c>
       <c r="S11">
-        <v>0.1015359114555695</v>
+        <v>0.1152084366352512</v>
       </c>
       <c r="T11">
-        <v>0.1015359114555695</v>
+        <v>0.1152084366352512</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H12">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I12">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J12">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>41092.8565945318</v>
+        <v>7149.828807458049</v>
       </c>
       <c r="R12">
-        <v>369835.7093507861</v>
+        <v>64348.45926712243</v>
       </c>
       <c r="S12">
-        <v>0.03524499723083595</v>
+        <v>0.008675214207495379</v>
       </c>
       <c r="T12">
-        <v>0.03524499723083594</v>
+        <v>0.008675214207495377</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H13">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I13">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J13">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>43313.39307229796</v>
+        <v>7735.989305558663</v>
       </c>
       <c r="R13">
-        <v>389820.5376506816</v>
+        <v>69623.90375002797</v>
       </c>
       <c r="S13">
-        <v>0.03714953267800788</v>
+        <v>0.009386429541167529</v>
       </c>
       <c r="T13">
-        <v>0.03714953267800787</v>
+        <v>0.009386429541167527</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H14">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I14">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J14">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>27984.3112256513</v>
+        <v>3334.883564165368</v>
       </c>
       <c r="R14">
-        <v>251858.8010308617</v>
+        <v>30013.95207748831</v>
       </c>
       <c r="S14">
-        <v>0.02400190819993222</v>
+        <v>0.004046366711047994</v>
       </c>
       <c r="T14">
-        <v>0.02400190819993222</v>
+        <v>0.004046366711047994</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H15">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I15">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J15">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>14993.74417349108</v>
+        <v>2618.792117614472</v>
       </c>
       <c r="R15">
-        <v>134943.6975614197</v>
+        <v>23569.12905853025</v>
       </c>
       <c r="S15">
-        <v>0.01286000817827976</v>
+        <v>0.003177500216719599</v>
       </c>
       <c r="T15">
-        <v>0.01286000817827975</v>
+        <v>0.003177500216719598</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H16">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I16">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J16">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>21827.06348895475</v>
+        <v>3126.800421072192</v>
       </c>
       <c r="R16">
-        <v>196443.5714005927</v>
+        <v>28141.20378964973</v>
       </c>
       <c r="S16">
-        <v>0.01872088864048115</v>
+        <v>0.003793889919237367</v>
       </c>
       <c r="T16">
-        <v>0.01872088864048114</v>
+        <v>0.003793889919237367</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H17">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I17">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J17">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>4432.883342684502</v>
+        <v>8425.619599658787</v>
       </c>
       <c r="R17">
-        <v>39895.95008416052</v>
+        <v>75830.57639692907</v>
       </c>
       <c r="S17">
-        <v>0.003802046732334604</v>
+        <v>0.01022318950933012</v>
       </c>
       <c r="T17">
-        <v>0.003802046732334603</v>
+        <v>0.01022318950933012</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H18">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I18">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J18">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>4672.42325253401</v>
+        <v>9116.372555336638</v>
       </c>
       <c r="R18">
-        <v>42051.8092728061</v>
+        <v>82047.35299802975</v>
       </c>
       <c r="S18">
-        <v>0.004007498096853373</v>
+        <v>0.01106131165411703</v>
       </c>
       <c r="T18">
-        <v>0.004007498096853372</v>
+        <v>0.01106131165411703</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H19">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I19">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J19">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>3018.801742422453</v>
+        <v>3929.948685135219</v>
       </c>
       <c r="R19">
-        <v>27169.21568180208</v>
+        <v>35369.53816621697</v>
       </c>
       <c r="S19">
-        <v>0.002589200845829744</v>
+        <v>0.004768386430798173</v>
       </c>
       <c r="T19">
-        <v>0.002589200845829744</v>
+        <v>0.004768386430798173</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H20">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I20">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J20">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>1617.447028493657</v>
+        <v>3086.080350705502</v>
       </c>
       <c r="R20">
-        <v>14557.02325644292</v>
+        <v>27774.72315634951</v>
       </c>
       <c r="S20">
-        <v>0.001387270702613278</v>
+        <v>0.003744482395996133</v>
       </c>
       <c r="T20">
-        <v>0.001387270702613278</v>
+        <v>0.003744482395996133</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H21">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I21">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J21">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>2354.589925801848</v>
+        <v>3684.735903680137</v>
       </c>
       <c r="R21">
-        <v>21191.30933221663</v>
+        <v>33162.62313312123</v>
       </c>
       <c r="S21">
-        <v>0.002019511961251277</v>
+        <v>0.004470858551064939</v>
       </c>
       <c r="T21">
-        <v>0.002019511961251277</v>
+        <v>0.004470858551064939</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H22">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>42570.27808013489</v>
+        <v>2577.513039058535</v>
       </c>
       <c r="R22">
-        <v>383132.502721214</v>
+        <v>23197.61735152682</v>
       </c>
       <c r="S22">
-        <v>0.03651216920387878</v>
+        <v>0.003127414423282525</v>
       </c>
       <c r="T22">
-        <v>0.03651216920387877</v>
+        <v>0.003127414423282525</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H23">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>44870.65004692991</v>
+        <v>2788.823878453657</v>
       </c>
       <c r="R23">
-        <v>403835.8504223692</v>
+        <v>25099.41490608291</v>
       </c>
       <c r="S23">
-        <v>0.03848517887803154</v>
+        <v>0.00338380752659797</v>
       </c>
       <c r="T23">
-        <v>0.03848517887803153</v>
+        <v>0.003383807526597969</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H24">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>28990.43798565082</v>
+        <v>1202.225410126181</v>
       </c>
       <c r="R24">
-        <v>260913.9418708574</v>
+        <v>10820.02869113563</v>
       </c>
       <c r="S24">
-        <v>0.0248648546536176</v>
+        <v>0.001458715060094787</v>
       </c>
       <c r="T24">
-        <v>0.0248648546536176</v>
+        <v>0.001458715060094787</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H25">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>15532.81791105402</v>
+        <v>944.0744682857387</v>
       </c>
       <c r="R25">
-        <v>139795.3611994862</v>
+        <v>8496.670214571648</v>
       </c>
       <c r="S25">
-        <v>0.01332236718571246</v>
+        <v>0.001145488718787641</v>
       </c>
       <c r="T25">
-        <v>0.01332236718571245</v>
+        <v>0.001145488718787641</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H26">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>22611.81722083563</v>
+        <v>1127.211444201363</v>
       </c>
       <c r="R26">
-        <v>203506.3549875207</v>
+        <v>10144.90299781226</v>
       </c>
       <c r="S26">
-        <v>0.01939396531120134</v>
+        <v>0.001367697185334941</v>
       </c>
       <c r="T26">
-        <v>0.01939396531120133</v>
+        <v>0.001367697185334941</v>
       </c>
     </row>
   </sheetData>
